--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_7BB3415B4CC3B952E6F64C476972BCBE2C73F518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205086D6-0BEE-461B-A229-38B823C6BC0F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Georgian AIDI\semester 2\AIDI 1011\AI-Project\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="resource links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -179,13 +183,73 @@
   </si>
   <si>
     <t>https://github.com/zhiqiangzhongddu/Data-Science-Interview-Questions-and-Answers-General-</t>
+  </si>
+  <si>
+    <t>How can you iterate over a list and also retrieve element indices at the same time?</t>
+  </si>
+  <si>
+    <t>This can be done using the enumerate function which takes every element in a sequence just like in a list and adds its location just before it.</t>
+  </si>
+  <si>
+    <t>During analysis, how do you treat missing values?</t>
+  </si>
+  <si>
+    <t>Minsing values has many reasons, like: Information not advisable for this time Information was missed by collect Some attributes of some items are not avaliable Some information was thinked not important It's too expensive to collect all these data Types of Missing values: Missing completely at Random (MCAR): no relationship with missing values and other variables, like family adress Missing at random (MAR): not completely random, missing denpends on other variables, like finance situation data missing has relationship with the company size Missing not at random (MNAR): there is relationship with the value of variable self, like high income families don't will to open its income situation Methods treatment (you need to know clearly about your missing values firstly) Delect tuple Delect tuples have any missing values List wise delection Pair wise delection Imputation Filling manually Treating Missing Attribute values as Special values (mean, mode, median imputation) Hot deck imputation KNN Assigning All Possible values of the Attribute Combinational Completer Regression Expectation maximization, EM Multiple Imputation</t>
+  </si>
+  <si>
+    <t>Can you use machine learning for time series analysis?</t>
+  </si>
+  <si>
+    <t>Yes, it can be used but it depends on the applications.</t>
+  </si>
+  <si>
+    <t>Write a function that takes in two sorted lists and outputs a sorted list that is their union.</t>
+  </si>
+  <si>
+    <t>First solution which will come to your mind is to merge two lists and short them afterwards **Python code-** def return_union(list_a, list_b): return sorted(list_a + list_b) **R code-** return_union &lt;- function(list_a, list_b) { list_c&lt;-list(c(unlist(list_a),unlist(list_b))) return(list(list_c[[1]][order(list_c[[1]])])) } Generally, the tricky part of the question is not to use any sorting or ordering function. In that case you will have to write your own logic to answer the question and impress your interviewer. ***Python code-*** def return_union(list_a, list_b): len1 = len(list_a) len2 = len(list_b) final_sorted_list = [] j = 0 k = 0 for i in range(len1+len2): if k == len1: final_sorted_list.extend(list_b[j:]) break elif j == len2: final_sorted_list.extend(list_a[k:]) break elif list_a[k] &lt; list_b[j]: final_sorted_list.append(list_a[k]) k += 1 else: final_sorted_list.append(list_b[j]) j += 1 return final_sorted_list Similar function can be returned in R as well by following the similar steps. return_union &lt;- function(list_a,list_b) { #Initializing length variables len_a &lt;- length(list_a) len_b &lt;- length(list_b) len &lt;- len_a + len_b #initializing counter variables j=1 k=1 #Creating an empty list which has length equal to sum of both the lists list_c &lt;- list(rep(NA,len)) #Here goes our for loop for(i in 1:len) { if(j&gt;len_a) { list_c[i:len] &lt;- list_b[k:len_b] break } else if(k&gt;len_b) { list_c[i:len] &lt;- list_a[j:len_a] break } else if(list_a[[j]] &lt;= list_b[[k]]) { list_c[[i]] &lt;- list_a[[j]] j &lt;- j+1 } else if(list_a[[j]] &gt; list_b[[k]]) { list_c[[i]] &lt;- list_b[[k]] k &lt;- k+1 } } return(list(unlist(list_c))) }</t>
+  </si>
+  <si>
+    <t>How do you decide whether your linear regression model fits the data?</t>
+  </si>
+  <si>
+    <t>Many solutions, such as use a loss function and check it situation, or use test data to verify our model</t>
+  </si>
+  <si>
+    <t>How can you overcome Overfitting?</t>
+  </si>
+  <si>
+    <t>Regularization: add a regularizer or a penalty term. Cross Validation: Simple cross validation; S-folder cross validation; Leave-one-out cross validation.</t>
+  </si>
+  <si>
+    <t>Differentiate between wide and tall data formats?</t>
+  </si>
+  <si>
+    <t>Wide: data formats have lots of columns. Tall: data formats have lots of examples.</t>
+  </si>
+  <si>
+    <t>How will you define the number of clusters in a clustering algorithm?</t>
+  </si>
+  <si>
+    <t>Though the Clustering Algorithm is not specified, this question will mostly be asked in reference to K-Means clustering where “K” defines the number of clusters. The objective of clustering is to group similar entities in a way that the entities within a group are similar to each other but the groups are different from each other. For example, the following image shows three different groups. K-Mean Clustering Machine Learning Algorithm Within Sum of squares is generally used to explain the homogeneity within a cluster. If you plot WSS for a range of number of clusters, you will get the plot shown below. The Graph is generally known as Elbow Curve. Red circled point in above graph i.e. Number of Cluster =6 is the point after which you don’t see any decrement in WSS. This point is known as bending point and taken as K in K – Means. This is the widely used approach but few data scientists also use Hierarchical clustering first to create dendograms and identify the distinct groups from there.</t>
+  </si>
+  <si>
+    <t>Is it better to have too many false negatives or too many false positives?</t>
+  </si>
+  <si>
+    <t>It depends on the situation, for example, if we use the model for cancer detection, FN(False Negative) is more serious than FP(False Positive) because a FN could be verified in futher check, but FP maybe will let a patient be missed and delay the best treatment period.</t>
+  </si>
+  <si>
+    <t>Is it possible to perform logistic regression with Microsoft Excel?</t>
+  </si>
+  <si>
+    <t>Yep, i must say Microsoft Excel is more and more powerful, and many data science could be realized in simple way.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +295,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,6 +373,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -358,13 +444,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BCD802A-9519-4BD2-8582-FD36267BAC24}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D21" xr:uid="{7BCD802A-9519-4BD2-8582-FD36267BAC24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D31"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1F2BB4C1-2F21-418B-9D87-101B9EC11553}" name="ID" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{19959250-558F-4E9E-9536-C3A6A614E290}" name="Type" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C5FB560E-9AE1-48A5-8141-8D0F0B6FF54F}" name="Questions" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FCB75138-E826-4083-BD46-F28B4BB4C34E}" name="Answers" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="2" name="Questions" dataDxfId="1"/>
+    <tableColumn id="3" name="Answers" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,21 +752,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
-    <col min="4" max="4" width="111.85546875" customWidth="1"/>
+    <col min="4" max="4" width="111.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="152.25">
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -708,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60.75">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -722,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -736,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -750,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="76.5">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -764,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="76.5">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -778,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -792,7 +878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45.75">
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -806,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="91.5">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -820,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45.75">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -834,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -848,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -862,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="48.75">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -876,7 +962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -890,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="76.5">
+    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -904,7 +990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48.75">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -918,7 +1004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -932,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64.5">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -946,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="48.75">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -960,7 +1046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -974,50 +1060,191 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C11AC2D-93F5-4479-BFF0-0E175C094462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{93941BB4-8864-4255-9A79-44E38C5CE755}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{420A3F45-17C9-48C7-9D57-C6A6409779B2}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{A2C64968-7041-4671-9CB7-9DC57C8025AD}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{0A6E1F72-1046-4A25-8500-19B1E4AE9256}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1168,12 +1395,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1182,14 +1403,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D274AB-8394-4E0A-81E4-6A329FC7BDF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D274AB-8394-4E0A-81E4-6A329FC7BDF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="38dd7c4b-c59e-453c-9d5f-da80784713f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49B56D0-6E78-4DA7-92B4-5E288627F61E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CEBA48-4833-44F9-8CD0-C4EEBB103900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CEBA48-4833-44F9-8CD0-C4EEBB103900}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49B56D0-6E78-4DA7-92B4-5E288627F61E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>